--- a/data/new_pricing.xlsx
+++ b/data/new_pricing.xlsx
@@ -460,7 +460,7 @@
         <v>105200</v>
       </c>
       <c r="C2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="3">
@@ -640,46 +640,46 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>T006</t>
+          <t>T016</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>86000</v>
+        <v>93000</v>
       </c>
       <c r="C17" t="n">
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>T007</t>
+          <t>T017</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-124500</v>
+        <v>-78500</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.86</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>T008</t>
+          <t>T018</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>96000</v>
+        <v>104500</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>T009</t>
+          <t>T019</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -688,46 +688,46 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>T010</t>
+          <t>T020</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>74500</v>
+        <v>83000</v>
       </c>
       <c r="C21" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>T011</t>
+          <t>T021</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-89500</v>
+        <v>-86000</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.79</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>T012</t>
+          <t>T022</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>109500</v>
+        <v>99000</v>
       </c>
       <c r="C23" t="n">
-        <v>0.64</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>T013</t>
+          <t>T023</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -736,27 +736,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>T014</t>
+          <t>T024</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69000</v>
+        <v>73000</v>
       </c>
       <c r="C25" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>T015</t>
+          <t>T025</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-94000</v>
+        <v>-93000</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.91</v>
+        <v>-0.84</v>
       </c>
     </row>
   </sheetData>
